--- a/modelo_predictivo/CotizacionesBCRA.xlsx
+++ b/modelo_predictivo/CotizacionesBCRA.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manue\Desktop\Facultad\Tesis\tesis\modelo_predictivo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7CE94F4-5CFD-4B2A-A895-A2973E32755A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AD3CAED-CEC9-46AA-9DF4-0ED596B7C19D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -894,10 +894,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B4116"/>
+  <dimension ref="A1:B4127"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A196" workbookViewId="0">
-      <selection activeCell="A251" sqref="A251:B256"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4122" workbookViewId="0">
+      <selection activeCell="A4127" sqref="A4127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -33834,6 +33834,94 @@
         <v>349.95</v>
       </c>
     </row>
+    <row r="4117" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4117" s="2">
+        <v>45216</v>
+      </c>
+      <c r="B4117" s="4">
+        <v>350.1</v>
+      </c>
+    </row>
+    <row r="4118" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4118" s="2">
+        <v>45217</v>
+      </c>
+      <c r="B4118" s="4">
+        <v>350.1</v>
+      </c>
+    </row>
+    <row r="4119" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4119" s="2">
+        <v>45218</v>
+      </c>
+      <c r="B4119" s="4">
+        <v>349.95</v>
+      </c>
+    </row>
+    <row r="4120" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4120" s="2">
+        <v>45219</v>
+      </c>
+      <c r="B4120" s="4">
+        <v>349.95</v>
+      </c>
+    </row>
+    <row r="4121" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4121" s="2">
+        <v>45222</v>
+      </c>
+      <c r="B4121" s="4">
+        <v>349.95</v>
+      </c>
+    </row>
+    <row r="4122" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4122" s="2">
+        <v>45223</v>
+      </c>
+      <c r="B4122" s="4">
+        <v>349.95</v>
+      </c>
+    </row>
+    <row r="4123" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4123" s="2">
+        <v>45224</v>
+      </c>
+      <c r="B4123" s="4">
+        <v>350.1</v>
+      </c>
+    </row>
+    <row r="4124" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4124" s="2">
+        <v>45225</v>
+      </c>
+      <c r="B4124" s="4">
+        <v>349.95</v>
+      </c>
+    </row>
+    <row r="4125" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4125" s="2">
+        <v>45226</v>
+      </c>
+      <c r="B4125" s="4">
+        <v>349.95</v>
+      </c>
+    </row>
+    <row r="4126" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4126" s="2">
+        <v>45229</v>
+      </c>
+      <c r="B4126" s="4">
+        <v>349.95</v>
+      </c>
+    </row>
+    <row r="4127" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4127" s="2">
+        <v>45230</v>
+      </c>
+      <c r="B4127" s="4">
+        <v>349.95</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:B4116" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
